--- a/public/asset/doc/contoh_excel.xlsx
+++ b/public/asset/doc/contoh_excel.xlsx
@@ -1,5 +1,1135 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9707" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>URAIAN TUGAS</t>
+  </si>
+  <si>
+    <t>SATUAN HASIL</t>
+  </si>
+  <si>
+    <t>WAKTU PENYELESAIAN (MENIT)</t>
+  </si>
+  <si>
+    <t>WAKTU KERJA EFEKTIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VOLUME KERJA</t>
+  </si>
+  <si>
+    <t>PEGAWAI YANG DIBUTUHKAN</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menyusun dan menetapkan rencana operasional pelaksanaan pembinaan Tata Kelola e-Government, yang meliputi program dan kegiatan pelaksanaan pembinaan sumber daya publik, sesuai kebijakan operasional, pedoman dan petunjuk operasional pelaksanaan fasilitasi pembinaan bidang Tata Kelola e-Government.</t>
+  </si>
+  <si>
+    <t>berkas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menyusun rencana program dan rencana kegiatan sesuai standart operasional, rencana tata waktu dan mekanisme pelaksanaan penyelenggaraan (fasilitasi) pelaksanaan pembinaan Tata Kelola e-Government..</t>
+  </si>
+  <si>
+    <t>kegiatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melaksanakan secara operasionalisasi kegiatan penguatan kapasitas Tata Kelola e-Government, pengembangan sumber daya Teknologi Informasi dan  Komunikasi (TIK) pemerintah kabupaten dan masyarakat, fasilitasi penyelenggaraan Govermment Chief Information Officer (GCIO) pemerintah kabupaten serta fasilitasi penyelenggaraan Ekosistem TIK Smart City di kabupaten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mengendalikan tata operasional dan mekanisme kegiatan penguatan kapasitas Tata Kelola e-Government, pengembangan sumber daya Teknologi Informasi dan Komunikasi (TIK) pemerintah kabupaten dan masyarakat, fasilitasi penyelenggaraan Govemment Chief Information Officer (GCIO) pemerintah kabupaten serta fasilitasi penyelenggaraan Ekosistem TIK Smart City di kabupaten.</t>
+  </si>
+  <si>
+    <t>laporan</t>
+  </si>
+  <si>
+    <t>Menyusun bahan dan membantu melaksanakan kerja sama dengan satuan kerja perangkat daerah, instansi, masyarakat dan pemangku kepentingan lainnya dalam kegiatan pembinaan penguatan kapasitas sumber Teknologi Informasi dan Komunikasi (TIK) pemerintah kabupaten dan masyarakat, fasilitasi penyelenggaraan Govermment Chief Information Officer (GCIO) pemerintah kabupaten serta fasilitasi penyelenggaraan Ekosistem TIK Smart City di kabupaten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.6 Mengevaluasi dan menilai secara periodik hasil operasional kegiatan penguatan sumber daya Teknologi Informasi dan Komunikasi (TIK) pemerintah kabupaten dan masyarakat, fasilitasi penyelenggaraan Govenment Chief Information Officer (GCIO) pemerintah kabupaten serta fasilitasi penyelenggaraan Ekosistem TIK Smart City di kabupaten yang meliputi seluruh faktor dan unsur manajemen. </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="50"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lohit Devanagari"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="35">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4C4C4C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4C4C4C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4C4C4C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4C4C4C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4C4C4C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Mata Uang" xfId="2" builtinId="4"/>
+    <cellStyle name="Persen" xfId="3" builtinId="5"/>
+    <cellStyle name="Koma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Mata Uang [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink yang Diikuti" xfId="7" builtinId="9"/>
+    <cellStyle name="Catatan" xfId="8" builtinId="10"/>
+    <cellStyle name="Teks Peringatan" xfId="9" builtinId="11"/>
+    <cellStyle name="Judul" xfId="10" builtinId="15"/>
+    <cellStyle name="Teks CExplanatory" xfId="11" builtinId="53"/>
+    <cellStyle name="Kepala 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Kepala 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Kepala 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Kepala 4" xfId="15" builtinId="19"/>
+    <cellStyle name="input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Perhitungan" xfId="18" builtinId="22"/>
+    <cellStyle name="Cek Sel" xfId="19" builtinId="23"/>
+    <cellStyle name="Sel Ditautkan" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Baik" xfId="22" builtinId="26"/>
+    <cellStyle name="Buruk" xfId="23" builtinId="27"/>
+    <cellStyle name="Netral" xfId="24" builtinId="28"/>
+    <cellStyle name="Aksen1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Aksen1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Aksen1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Aksen1" xfId="28" builtinId="32"/>
+    <cellStyle name="Aksen2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Aksen2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Aksen2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Aksen2" xfId="32" builtinId="36"/>
+    <cellStyle name="Aksen3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Aksen3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Aksen3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Aksen3" xfId="36" builtinId="40"/>
+    <cellStyle name="Aksen4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Aksen4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Aksen4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Aksen4" xfId="40" builtinId="44"/>
+    <cellStyle name="Aksen5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Aksen5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Aksen5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Aksen5" xfId="44" builtinId="48"/>
+    <cellStyle name="Aksen6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Aksen6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Aksen6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Aksen6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="004C4C4C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="00CCCCFF"/>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -254,6 +1384,229 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="11.5185185185185"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.5185185185185"/>
+    <col min="4" max="4" width="24.6018518518519" customWidth="1"/>
+    <col min="5" max="16383" width="11.5185185185185"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="44.25" customHeight="1" spans="1:10">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>72000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ref="I2:I7" si="0">F2*H2/G2</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" ht="44.25" customHeight="1" spans="1:10">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>72000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" ht="44.25" customHeight="1" spans="1:10">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>72000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" ht="44.25" customHeight="1" spans="1:10">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>72000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" ht="44.25" customHeight="1" spans="1:10">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>72000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" ht="44.25" customHeight="1" spans="1:10">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="7">
+        <v>72000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>